--- a/outputs-HGR-r202/c__Alphaproteobacteria.xlsx
+++ b/outputs-HGR-r202/c__Alphaproteobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1041,6 +1161,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1190,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1089,6 +1219,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1248,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1137,6 +1277,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1306,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1185,6 +1335,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1209,6 +1364,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1233,6 +1393,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1257,6 +1422,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1281,6 +1451,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1305,6 +1480,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1329,6 +1509,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1353,6 +1538,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1377,6 +1567,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1401,6 +1596,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1425,6 +1625,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1449,6 +1654,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1473,6 +1683,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1497,6 +1712,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1521,6 +1741,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,6 +1770,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1569,6 +1799,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1593,6 +1828,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1617,6 +1857,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1641,6 +1886,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1665,6 +1915,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1689,6 +1944,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1713,6 +1973,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1737,6 +2002,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1761,6 +2031,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1785,6 +2060,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1809,6 +2089,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1833,6 +2118,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1857,6 +2147,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1881,6 +2176,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1905,6 +2205,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1929,6 +2234,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1953,6 +2263,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1977,6 +2292,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2001,6 +2321,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2025,6 +2350,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2049,6 +2379,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2073,6 +2408,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2097,6 +2437,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2121,6 +2466,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2145,6 +2495,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2169,6 +2524,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2193,6 +2553,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2217,6 +2582,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2241,6 +2611,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2265,6 +2640,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2289,6 +2669,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2313,6 +2698,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2337,6 +2727,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2361,6 +2756,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2385,6 +2785,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2409,6 +2814,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2433,6 +2843,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2457,6 +2872,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2481,6 +2901,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2505,6 +2930,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2529,6 +2959,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2553,6 +2988,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2577,6 +3017,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2601,6 +3046,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2625,6 +3075,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2649,6 +3104,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2673,6 +3133,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2697,6 +3162,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2721,6 +3191,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2745,6 +3220,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2769,6 +3249,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2793,6 +3278,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2817,6 +3307,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2841,6 +3336,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2865,6 +3365,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2889,6 +3394,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2913,6 +3423,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2937,6 +3452,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2961,6 +3481,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2985,6 +3510,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3009,6 +3539,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3033,6 +3568,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3057,6 +3597,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3081,6 +3626,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3105,6 +3655,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3129,6 +3684,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3153,6 +3713,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3177,6 +3742,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3201,6 +3771,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3225,6 +3800,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3249,6 +3829,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3273,6 +3858,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3297,6 +3887,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3321,6 +3916,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3345,6 +3945,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3369,6 +3974,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3393,6 +4003,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3417,6 +4032,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3441,6 +4061,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3465,6 +4090,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3489,6 +4119,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3513,6 +4148,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3537,6 +4177,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3561,6 +4206,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3585,6 +4235,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -3609,6 +4264,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -3633,6 +4293,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -3657,6 +4322,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -3681,6 +4351,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -3705,6 +4380,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -3729,6 +4409,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -3753,6 +4438,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -3777,6 +4467,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3801,6 +4496,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -3825,6 +4525,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -3849,6 +4554,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3873,6 +4583,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3897,6 +4612,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3921,6 +4641,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3945,6 +4670,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3969,6 +4699,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3993,6 +4728,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4017,6 +4757,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4041,6 +4786,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4065,6 +4815,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4089,6 +4844,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4113,6 +4873,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4137,6 +4902,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4161,6 +4931,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4185,6 +4960,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4209,6 +4989,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4233,6 +5018,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4257,6 +5047,11 @@
           <t>o__RF32</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4277,6 +5072,11 @@
         <v>1</v>
       </c>
       <c r="F160" t="inlineStr">
+        <is>
+          <t>o__RF32</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>o__RF32</t>
         </is>
